--- a/config_3.16/game_enter_btn_config.xlsx
+++ b/config_3.16/game_enter_btn_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_3.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_3.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="18" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -37,7 +37,9 @@
     <sheet name="lwzb_game_hall|龙王争霸大厅" sheetId="33" r:id="rId23"/>
     <sheet name="xxlxy_game|西游消消乐" sheetId="34" r:id="rId24"/>
     <sheet name="year_panel|活动入口内" sheetId="31" r:id="rId25"/>
-    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId26"/>
+    <sheet name="jchd_config|精彩活动" sheetId="35" r:id="rId26"/>
+    <sheet name="hqjb_config|获取金币" sheetId="36" r:id="rId27"/>
+    <sheet name="all_enter|所有按钮入口" sheetId="10" r:id="rId28"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -81,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="379">
   <si>
     <t>id|行号</t>
   </si>
@@ -1125,10 +1127,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>"act_027_jqshl",</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>金秋送豪礼</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1520,10 +1518,6 @@
   </si>
   <si>
     <t>"ty_gift","gift_cglb","enter"</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>"sys_act_base","weekly","enter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1675,6 +1669,26 @@
   </si>
   <si>
     <t>127#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>all</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>87#118#42#88#30#58</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"sys_act_base","weekly","enter"</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>##93#11#110#74#40</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>"act_027_jqshl",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1822,7 +1836,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1855,12 +1869,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1914,7 +1922,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1992,15 +2000,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2334,10 +2333,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>324</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -2348,7 +2347,7 @@
         <v>199</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -2356,10 +2355,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2694,7 +2693,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -2782,7 +2781,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2804,7 +2803,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2835,10 +2834,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
@@ -2846,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -2857,10 +2856,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2927,7 +2926,7 @@
         <v>202</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -3029,7 +3028,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3040,7 +3039,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3104,7 +3103,7 @@
         <v>228</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3142,7 +3141,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3177,10 +3176,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3219,7 +3218,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3257,7 +3256,7 @@
         <v>153</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3268,7 +3267,7 @@
         <v>24</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3295,7 +3294,7 @@
         <v>56</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -3306,7 +3305,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3317,13 +3316,95 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>376</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B103" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C125" sqref="C125"/>
+      <selection pane="bottomRight" activeCell="A121" sqref="A101:F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3342,13 +3423,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>50</v>
@@ -3362,7 +3443,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C2" s="6">
         <v>0</v>
@@ -3380,7 +3461,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
@@ -3404,7 +3485,7 @@
         <v>1</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E4" s="6">
         <v>3</v>
@@ -3544,13 +3625,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>342</v>
+        <v>375</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E12" s="6">
         <v>11</v>
@@ -3708,7 +3789,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C21" s="6">
         <v>1</v>
@@ -3888,7 +3969,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C31" s="6">
         <v>1</v>
@@ -4521,7 +4602,7 @@
         <v>66</v>
       </c>
       <c r="F67" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -4572,7 +4653,7 @@
         <v>69</v>
       </c>
       <c r="F70" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
@@ -4784,7 +4865,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C83">
         <v>1</v>
@@ -4875,7 +4956,7 @@
         <v>1</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E88">
         <v>87</v>
@@ -4898,7 +4979,7 @@
         <v>88</v>
       </c>
       <c r="F89" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
@@ -4974,7 +5055,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>245</v>
+        <v>377</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -4983,7 +5064,7 @@
         <v>93</v>
       </c>
       <c r="F94" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
@@ -4991,7 +5072,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C95">
         <v>1</v>
@@ -5000,7 +5081,7 @@
         <v>94</v>
       </c>
       <c r="F95" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
@@ -5008,7 +5089,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C96">
         <v>1</v>
@@ -5017,7 +5098,7 @@
         <v>95</v>
       </c>
       <c r="F96" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
@@ -5025,7 +5106,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C97">
         <v>1</v>
@@ -5034,7 +5115,7 @@
         <v>96</v>
       </c>
       <c r="F97" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
@@ -5042,7 +5123,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C98">
         <v>1</v>
@@ -5052,7 +5133,7 @@
         <v>97</v>
       </c>
       <c r="F98" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
@@ -5060,7 +5141,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -5069,7 +5150,7 @@
         <v>98</v>
       </c>
       <c r="F99" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
@@ -5077,7 +5158,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -5086,7 +5167,7 @@
         <v>99</v>
       </c>
       <c r="F100" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
@@ -5094,7 +5175,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -5103,7 +5184,7 @@
         <v>100</v>
       </c>
       <c r="F101" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
@@ -5111,19 +5192,19 @@
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C102">
         <v>1</v>
       </c>
       <c r="D102" s="24" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E102">
         <v>101</v>
       </c>
       <c r="F102" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="103" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -5131,7 +5212,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C103" s="20">
         <v>1</v>
@@ -5140,7 +5221,7 @@
         <v>102</v>
       </c>
       <c r="F103" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
@@ -5148,7 +5229,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -5157,7 +5238,7 @@
         <v>103</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.2">
@@ -5165,7 +5246,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="16" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C105" s="15">
         <v>1</v>
@@ -5174,7 +5255,7 @@
         <v>104</v>
       </c>
       <c r="F105" s="15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
@@ -5182,19 +5263,19 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C106">
         <v>1</v>
       </c>
       <c r="D106" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E106">
         <v>105</v>
       </c>
       <c r="F106" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
@@ -5202,7 +5283,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="10" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -5211,7 +5292,7 @@
         <v>106</v>
       </c>
       <c r="F107" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
@@ -5219,7 +5300,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -5228,7 +5309,7 @@
         <v>107</v>
       </c>
       <c r="F108" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5236,7 +5317,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="14" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -5245,7 +5326,7 @@
         <v>108</v>
       </c>
       <c r="F109" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
@@ -5253,7 +5334,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -5262,7 +5343,7 @@
         <v>109</v>
       </c>
       <c r="F110" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
@@ -5270,7 +5351,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -5279,7 +5360,7 @@
         <v>110</v>
       </c>
       <c r="F111" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
@@ -5287,7 +5368,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -5296,7 +5377,7 @@
         <v>111</v>
       </c>
       <c r="F112" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
@@ -5304,7 +5385,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -5313,7 +5394,7 @@
         <v>112</v>
       </c>
       <c r="F113" s="18" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
@@ -5321,7 +5402,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -5330,7 +5411,7 @@
         <v>113</v>
       </c>
       <c r="F114" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
@@ -5338,7 +5419,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -5347,7 +5428,7 @@
         <v>114</v>
       </c>
       <c r="F115" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
@@ -5355,19 +5436,19 @@
         <v>115</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C116">
         <v>1</v>
       </c>
       <c r="D116" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E116">
         <v>115</v>
       </c>
       <c r="F116" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
@@ -5375,19 +5456,19 @@
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="C117">
-        <v>1</v>
-      </c>
-      <c r="D117" s="6" t="s">
-        <v>314</v>
       </c>
       <c r="E117">
         <v>116</v>
       </c>
       <c r="F117" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="16.5" x14ac:dyDescent="0.2">
@@ -5395,7 +5476,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="23" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -5404,7 +5485,7 @@
         <v>117</v>
       </c>
       <c r="F118" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
@@ -5412,7 +5493,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -5421,7 +5502,7 @@
         <v>118</v>
       </c>
       <c r="F119" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
@@ -5429,7 +5510,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -5438,24 +5519,24 @@
         <v>119</v>
       </c>
       <c r="F120" s="6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="E121">
+        <v>120</v>
+      </c>
+      <c r="F121" s="6" t="s">
         <v>327</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="26">
-        <v>120</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>330</v>
-      </c>
-      <c r="C121" s="26">
-        <v>1</v>
-      </c>
-      <c r="E121" s="26">
-        <v>120</v>
-      </c>
-      <c r="F121" s="28" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -5463,7 +5544,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -5472,7 +5553,7 @@
         <v>121</v>
       </c>
       <c r="F122" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
@@ -5480,7 +5561,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -5489,7 +5570,7 @@
         <v>122</v>
       </c>
       <c r="F123" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
@@ -5497,7 +5578,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -5506,7 +5587,7 @@
         <v>123</v>
       </c>
       <c r="F124" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.2">
@@ -5514,7 +5595,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -5523,7 +5604,7 @@
         <v>124</v>
       </c>
       <c r="F125" s="6" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.2">
@@ -5531,7 +5612,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="10" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -5540,7 +5621,7 @@
         <v>125</v>
       </c>
       <c r="F126" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
@@ -5548,7 +5629,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5557,7 +5638,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5565,7 +5646,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5574,7 +5655,7 @@
         <v>127</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5616,7 +5697,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5627,7 +5708,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5691,7 +5772,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5702,7 +5783,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5766,7 +5847,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -5812,7 +5893,7 @@
         <v>23</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -5823,7 +5904,7 @@
         <v>159</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D3"/>
     </row>
@@ -5899,10 +5980,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5955,7 +6036,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D2" s="6">
         <f>'all_enter|所有按钮入口'!E2</f>
@@ -5974,7 +6055,7 @@
         <v>146</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D3" s="6">
         <f>'all_enter|所有按钮入口'!E3</f>
@@ -5994,10 +6075,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D4" s="6">
         <f>'all_enter|所有按钮入口'!E4</f>
@@ -6069,10 +6150,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="D8" s="6">
         <f>'all_enter|所有按钮入口'!E8</f>
@@ -6088,10 +6169,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="D9" s="6">
         <f>'all_enter|所有按钮入口'!E9</f>

--- a/config_3.16/game_enter_btn_config.xlsx
+++ b/config_3.16/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="24"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -1676,23 +1676,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>87#118#42#88#30#58</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"sys_act_base","weekly","enter"</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>##93#11#110#74#40</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>"act_027_jqshl",</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>120#</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>58#30#88#42#118#87</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>40#74#110#11#93</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -3280,8 +3280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3305,7 +3305,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3316,10 +3316,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3346,8 +3346,11 @@
         <v>373</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>376</v>
-      </c>
+        <v>378</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3357,10 +3360,10 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3387,8 +3390,11 @@
         <v>373</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>374</v>
-      </c>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="C4" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -3625,7 +3631,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -5055,7 +5061,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="C94">
         <v>1</v>

--- a/config_3.16/game_enter_btn_config.xlsx
+++ b/config_3.16/game_enter_btn_config.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="820" firstSheet="20" activeTab="27"/>
   </bookViews>
   <sheets>
     <sheet name="mini_game_hall|小游戏大厅" sheetId="15" r:id="rId1"/>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="380">
   <si>
     <t>id|行号</t>
   </si>
@@ -1596,10 +1596,6 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>11#</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>16;31;90;101#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1693,6 +1689,14 @@
   </si>
   <si>
     <t>40#74#110#11#93</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>128#11#</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -2693,7 +2697,7 @@
         <v>42</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2781,7 +2785,7 @@
         <v>108</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -2803,7 +2807,7 @@
         <v>177</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F4" s="6"/>
     </row>
@@ -2856,10 +2860,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>371</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -3028,7 +3032,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3039,7 +3043,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3141,7 +3145,7 @@
         <v>229</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -3179,7 +3183,7 @@
         <v>277</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3218,7 +3222,7 @@
         <v>57</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3305,7 +3309,7 @@
         <v>146</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3318,7 +3322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -3343,10 +3347,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3387,10 +3391,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -3404,13 +3408,13 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F128"/>
+  <dimension ref="A1:F129"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B88" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B109" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A121" sqref="A101:F121"/>
+      <selection pane="bottomRight" activeCell="B129" sqref="B129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3631,7 +3635,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
@@ -5061,7 +5065,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="10" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C94">
         <v>1</v>
@@ -5635,7 +5639,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -5644,7 +5648,7 @@
         <v>126</v>
       </c>
       <c r="F127" s="6" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
@@ -5652,7 +5656,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -5661,7 +5665,27 @@
         <v>127</v>
       </c>
       <c r="F128" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>378</v>
+      </c>
+      <c r="E129">
+        <v>127</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -5703,7 +5727,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5714,7 +5738,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5746,7 +5770,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5778,7 +5802,7 @@
         <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5789,7 +5813,7 @@
         <v>25</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -5853,7 +5877,7 @@
         <v>233</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
